--- a/biology/Médecine/Lothar_Stengel-von_Rutkowski/Lothar_Stengel-von_Rutkowski.xlsx
+++ b/biology/Médecine/Lothar_Stengel-von_Rutkowski/Lothar_Stengel-von_Rutkowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lothar August Arnold Stengel-von Rutkowski (né le 3 septembre 1908 à Hofzumberge en Courlande et mort le 24 août 1992 à Wittmund en Allemagne) est un médecin, poète et partisan de l'eugénisme sous le régime nazi.
 </t>
@@ -513,19 +525,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avant 1945
-Lothar von Rutkowski est issu d'une vieille famille germano-baltique. Son père, Arnold von Rutkowski était un pasteur protestant, et sa mère était Elisabeth von Bahder. À l'âge de dix ans, il a été témoin du meurtre de ses parents par les bolcheviks. Il déménage avec son frère en Allemagne, où il a été adopté par l'historien Edmund E. Stengel à Marburg an der Lahn. Il s'intéresse à la « question raciale » après 1927 en étudiant les œuvres de Fritz Lenz et d'Hermann Muckermann[1] . À Marburg, il étudie au lycée Philippinum, et obtient son diplôme d'études secondaires en 1928. De 1928 à 1933, il étudie la médecine, l'anthropologie et l'eugénisme à Munich, Marburg et Vienne. Il est membre du mouvement völkisch, des Jugendbund et des Adler et de Falken[2] . À Munich, il devient membre de la Guild Greif Munich[3] 
+          <t>Avant 1945</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lothar von Rutkowski est issu d'une vieille famille germano-baltique. Son père, Arnold von Rutkowski était un pasteur protestant, et sa mère était Elisabeth von Bahder. À l'âge de dix ans, il a été témoin du meurtre de ses parents par les bolcheviks. Il déménage avec son frère en Allemagne, où il a été adopté par l'historien Edmund E. Stengel à Marburg an der Lahn. Il s'intéresse à la « question raciale » après 1927 en étudiant les œuvres de Fritz Lenz et d'Hermann Muckermann . À Marburg, il étudie au lycée Philippinum, et obtient son diplôme d'études secondaires en 1928. De 1928 à 1933, il étudie la médecine, l'anthropologie et l'eugénisme à Munich, Marburg et Vienne. Il est membre du mouvement völkisch, des Jugendbund et des Adler et de Falken . À Munich, il devient membre de la Guild Greif Munich 
 En avril 1930, Stengel-von Rutkowski rejoint le NSDAP (numéro de membre : 223 102) et en novembre 1930 la SS (numéro de membre : 3 683). Il est promu Untersturmführer le 24 mars 1934, le 12 septembre 1937 il est promu Hauptsturmführer et en 1939 Sturmbannführer. 
 Après avoir terminé ses études, Stengel-von Rutkowski travaille dans le Bureau pour la race et le peuplement (RuSHA) à Munich où il dirige le département de l'eugénisme.  
 En 1934, il est naturalisé allemand et épouse Monika Hoppe. De ce mariage naissent 4 enfants. En 1934, Lothar von Rutkowski réussit son examen d'État. 
-Karl Astel le désigne chef du Bureau d'État de Thuringe pour les affaires raciales à Weimar en 1933. À partir de novembre 1934, il dirige le département d'enseignement et de recherche raciale à l'Université d'Iéna. Il devient l'employé le plus proche de Karl Astel. Rutkowski était un ami proche du raciologue nazi Hans Günther. Grâce à Karl Astel, Stengel-von Rutkowski devient l'acteur principal de la biologie et de la philosophie nazies. Avec ses publications biophilosophiques[4] et ses théories raciales, il influence de larges segments de la population[5]. En 1936, est nommé juge au tribunal de santé héréditaire d'Iéna[6]. À partir du 1er octobre 1937, il est conseiller gouvernemental et médical. 
+Karl Astel le désigne chef du Bureau d'État de Thuringe pour les affaires raciales à Weimar en 1933. À partir de novembre 1934, il dirige le département d'enseignement et de recherche raciale à l'Université d'Iéna. Il devient l'employé le plus proche de Karl Astel. Rutkowski était un ami proche du raciologue nazi Hans Günther. Grâce à Karl Astel, Stengel-von Rutkowski devient l'acteur principal de la biologie et de la philosophie nazies. Avec ses publications biophilosophiques et ses théories raciales, il influence de larges segments de la population. En 1936, est nommé juge au tribunal de santé héréditaire d'Iéna. À partir du 1er octobre 1937, il est conseiller gouvernemental et médical. 
 En 1938, il obtient son doctorat à Iéna avec son ouvrage Die Fortpflanzung der thüringischen Bauern (« La reproduction des paysans de Thuringe »).
-En 1940, il est chargé des cours d'eugénisme, de biologie culturelle et de « philosophie de l'eugénisme » à la faculté de médecine. Dans la même année, il devient vice-Gaudozentenführer[7]. En plus de diffuser ses idées raciales et culturello-biologiques, Stengel-von Rutkowski soutient également les idées d'Ernst Haeckel[8] . Sa définition de la race a façonné l'idéologie nazie et est utilisée dans le dictionnaire nazi[9]. 
-Stengel-von Rutkowski est corédacteur en chef du magazine de Jakob Wilhelm Hauer « Deutscher Glaube. Monatsschrift für arteigene Lebensgestaltung, Weltschau und Frömmigkeit », qui est paru entre avril 1934 et février 1944. En juillet 1933 et jusqu'en mai 1934, il participe à la fondation du Mouvement de la foi. Il devient membre du conseil de direction des Adler et de Falken[10]. 
-À partir de 1940, il travaille comme médecin militaire pour les Waffen SS dans les Balkans, en Union soviétique et en Grèce. À partir de janvier 1944, il travaille comme médecin au RuSHA de Prague[11]. En 1945, il est capturé par les Soviétiques.
-Après la Seconde Guerre mondiale
-En raison de son implication politique et de sa proximité personnelle avec l'État nazi, Stengel-von Rutkowski est exclu de la fonction publique en son absence en septembre 1945[12]. Dans la zone d'occupation soviétique, plusieurs de ses écrits ont été placés sur la liste des livres à jeter[13] . En juillet 1949, il retourne à Marburg après quatre ans d'emprisonnement en Russie, où il y écrit un manuscrit intitulé Der Rassengedanke in Wissenschaft und Politik (« L'idée raciale dans la science et la politique ») 
-En 1954, Stengel-von Rutkowski passe un examen médical officiel à Düsseldorf et de 1958 à 1972, il travaille comme médecin du district de Waldeck à Korbach et comme médecin généraliste[14]. En collaboration avec Jakob Wilhelm Hauer, Stengel-von Rutkowski fonde en avril 1956 la « Freie Akademie ». De 1956 à 1972, il est le « secrétaire scientifique » de l'académie, et après la mort de Hauer en 1962, il devient le président de l'académie[1]. Il se retire en 1972 à Korbach, où il écrit de nombreux volumes de poésie. En 1992, Stengel-von Rutkowski plaide coupable dans une lettre à la mort de sa sœur Gisela, née en 1916, qui était mentalement malade et qui le 13 juin 1941 a été assassiné dans le l'hôpital psychiatrique Hadamar. 
+En 1940, il est chargé des cours d'eugénisme, de biologie culturelle et de « philosophie de l'eugénisme » à la faculté de médecine. Dans la même année, il devient vice-Gaudozentenführer. En plus de diffuser ses idées raciales et culturello-biologiques, Stengel-von Rutkowski soutient également les idées d'Ernst Haeckel . Sa définition de la race a façonné l'idéologie nazie et est utilisée dans le dictionnaire nazi. 
+Stengel-von Rutkowski est corédacteur en chef du magazine de Jakob Wilhelm Hauer « Deutscher Glaube. Monatsschrift für arteigene Lebensgestaltung, Weltschau und Frömmigkeit », qui est paru entre avril 1934 et février 1944. En juillet 1933 et jusqu'en mai 1934, il participe à la fondation du Mouvement de la foi. Il devient membre du conseil de direction des Adler et de Falken. 
+À partir de 1940, il travaille comme médecin militaire pour les Waffen SS dans les Balkans, en Union soviétique et en Grèce. À partir de janvier 1944, il travaille comme médecin au RuSHA de Prague. En 1945, il est capturé par les Soviétiques.
 </t>
         </is>
       </c>
@@ -551,10 +565,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Après la Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En raison de son implication politique et de sa proximité personnelle avec l'État nazi, Stengel-von Rutkowski est exclu de la fonction publique en son absence en septembre 1945. Dans la zone d'occupation soviétique, plusieurs de ses écrits ont été placés sur la liste des livres à jeter . En juillet 1949, il retourne à Marburg après quatre ans d'emprisonnement en Russie, où il y écrit un manuscrit intitulé Der Rassengedanke in Wissenschaft und Politik (« L'idée raciale dans la science et la politique ») 
+En 1954, Stengel-von Rutkowski passe un examen médical officiel à Düsseldorf et de 1958 à 1972, il travaille comme médecin du district de Waldeck à Korbach et comme médecin généraliste. En collaboration avec Jakob Wilhelm Hauer, Stengel-von Rutkowski fonde en avril 1956 la « Freie Akademie ». De 1956 à 1972, il est le « secrétaire scientifique » de l'académie, et après la mort de Hauer en 1962, il devient le président de l'académie. Il se retire en 1972 à Korbach, où il écrit de nombreux volumes de poésie. En 1992, Stengel-von Rutkowski plaide coupable dans une lettre à la mort de sa sœur Gisela, née en 1916, qui était mentalement malade et qui le 13 juin 1941 a été assassiné dans le l'hôpital psychiatrique Hadamar. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lothar_Stengel-von_Rutkowski</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lothar_Stengel-von_Rutkowski</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rasse und Geist. In: Nationalsozialistische Monatshefte. Jahrgang 4, Heft 35 (Februar) 1933, S. 86–90
 Grundzüge der Erbkunde und Rassenpflege. Langewort, Berlin-Lichterfelde 1934. 3. erg. Aufl. 1939; 4. unv. Aufl. 1943
@@ -580,31 +634,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Lothar_Stengel-von_Rutkowski</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lothar_Stengel-von_Rutkowski</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Livres lui faisant référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Michael Grüttner: Biographisches Lexikon zur nationalsozialistischen Wissenschaftspolitik (= Studien zur Wissenschafts- und Universitätsgeschichte. Band 6). Synchron, Heidelberg 2004,  (ISBN 3-935025-68-8), S. 168.
 Uwe Hoßfeld: Nationalsozialistische Wissenschaftsinstrumentalisierung: Die Rolle von Karl Astel und Lothar Stengel von Rutkowski bei der Genese des Buches von (Heinz Brücher) Ernst Haeckels Bluts- und Geisteserbe (1936). In Erika Krauße (Hg.): Der Brief als wissenschaftshistorische Quelle. Ernst-Haeckel-Haus-Studien, 8. Verl. für Wissenschaft und Bildung, Berlin 2005,  (ISBN 3-86135-488-8).
